--- a/stocks_cultures_dna/primers_DNA_minus20.xlsx
+++ b/stocks_cultures_dna/primers_DNA_minus20.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/lab_protocols/stocks_cultures_dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215D4185-0E8E-DB4F-8191-F11554210346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CCC05C-0F3E-7047-BDB9-DD8A40AB1F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="0" windowWidth="22020" windowHeight="17440" xr2:uid="{8B90D846-3A5E-3D4B-A0DD-CD8AA31427F2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28380" windowHeight="17440" activeTab="1" xr2:uid="{8B90D846-3A5E-3D4B-A0DD-CD8AA31427F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Primers" sheetId="1" r:id="rId1"/>
     <sheet name="DNA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>Freezer Box</t>
   </si>
@@ -126,15 +126,6 @@
     <t>Primer</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Concentration</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Kind</t>
   </si>
   <si>
@@ -145,13 +136,94 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>pEX18Gm</t>
+  </si>
+  <si>
+    <t>Concentration (ng/μL)</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>Volume (μL)</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Tiffany Zarrella</t>
+  </si>
+  <si>
+    <r>
+      <t>purified plasmid from DH5α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. coli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Plasmid</t>
+  </si>
+  <si>
+    <t>ZR</t>
+  </si>
+  <si>
+    <t>Lab Member</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Twist Bioscience</t>
+  </si>
+  <si>
+    <t>Date Stored</t>
+  </si>
+  <si>
+    <t>Gblock</t>
+  </si>
+  <si>
+    <t>ZR-pvdl-d2001-Twist</t>
+  </si>
+  <si>
+    <t>insert of first 2001 bp of pvdL flanked by 800 bp flanking sequences, made with help from Heather Feaga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -198,6 +270,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,7 +299,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -215,17 +307,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -234,6 +340,26 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,33 +696,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B97CC6C-AE89-7A40-A0C1-727AC55E7A77}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -604,181 +730,181 @@
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>57.1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>57.7</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -790,18 +916,18 @@
       <c r="D12" s="1">
         <v>53.5</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -813,14 +939,14 @@
       <c r="D13" s="1">
         <v>54.5</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>35</v>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -830,42 +956,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A521AB4E-D4C9-6840-A630-F6068D0361D2}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="8">
+        <v>45772</v>
+      </c>
+      <c r="D2" s="7">
+        <v>54.8</v>
+      </c>
+      <c r="E2" s="7">
+        <v>495</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="7">
+        <v>-20</v>
+      </c>
+      <c r="I2" s="8">
+        <v>45790</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
